--- a/问题&优化清单/list.xlsx
+++ b/问题&优化清单/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blog\问题&amp;优化清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D1511D-3C6F-4EAA-AB7F-F19AB5EF505D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C547308-D11B-4C46-941F-5684456CD669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +64,18 @@
   </si>
   <si>
     <t>将原来在setup中获取数据，修改为在beforeCreated生命周期中获取数据，也许和定义为ref还是reactive数据有关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于前端传参特殊字符丢失的问题，处理字符串，对字符串进行replaceAll操作，将特殊字符转化为编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题（红）/开发任务（黄）/优化（绿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增上传博客封面图片并在首页显示的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,12 +107,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,19 +139,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,126 +439,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="14" max="14" width="9.06640625" style="4"/>
+    <col min="14" max="14" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4">
         <v>44842</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="O2" s="4">
         <v>44842</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>44842</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="3" t="s">
-        <v>6</v>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="4">
+        <v>44843</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="C4" s="4">
+        <v>44842</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="Q1:AA1"/>
-    <mergeCell ref="Q2:AA2"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
+  <mergeCells count="16">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:AA3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:M4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -540,6 +602,11 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E3:M3"/>
+    <mergeCell ref="Q1:AA1"/>
+    <mergeCell ref="Q2:AA2"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题&优化清单/list.xlsx
+++ b/问题&优化清单/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blog\问题&amp;优化清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C547308-D11B-4C46-941F-5684456CD669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D0838E-BAE1-41D4-A5D9-D4454025175D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>新增上传博客封面图片并在首页显示的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录注册添加格式验证功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 利用element plus表单中的rules，在setup中设置表单验证要求并return，在el-form标签中设置prop属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,16 +159,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -451,146 +463,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4">
+      <c r="B2" s="4"/>
+      <c r="C2" s="3">
         <v>44842</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>44842</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>44842</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>44843</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>44842</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="2" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="C5" s="3">
+        <v>44844</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="3">
+        <v>44844</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="Q1:AA1"/>
+    <mergeCell ref="Q2:AA2"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:AA3"/>
     <mergeCell ref="C4:D4"/>
@@ -599,14 +660,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E1:M1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="Q1:AA1"/>
-    <mergeCell ref="Q2:AA2"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
